--- a/Code/Results/Cases/Case_9_31/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_9_31/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.02151633286539</v>
+        <v>1.019934628436165</v>
       </c>
       <c r="D2">
-        <v>1.040686267945005</v>
+        <v>1.038409997718643</v>
       </c>
       <c r="E2">
-        <v>1.02488650664515</v>
+        <v>1.02355706687774</v>
       </c>
       <c r="F2">
-        <v>1.04468309220213</v>
+        <v>1.043099814362341</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.053648405470974</v>
+        <v>1.052605020161441</v>
       </c>
       <c r="J2">
-        <v>1.043072002076393</v>
+        <v>1.041535018112909</v>
       </c>
       <c r="K2">
-        <v>1.051606449948754</v>
+        <v>1.049358950203708</v>
       </c>
       <c r="L2">
-        <v>1.036009687530422</v>
+        <v>1.034697686954219</v>
       </c>
       <c r="M2">
-        <v>1.055553135206213</v>
+        <v>1.053989661827578</v>
       </c>
       <c r="N2">
-        <v>1.01779595467393</v>
+        <v>1.017911420059971</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.052538872019831</v>
+        <v>1.051301506872173</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.047560456891491</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.045979989430667</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.024972488015563</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.025420009051441</v>
+        <v>1.023633142945519</v>
       </c>
       <c r="D3">
-        <v>1.043368375836202</v>
+        <v>1.040855380142125</v>
       </c>
       <c r="E3">
-        <v>1.027995113244545</v>
+        <v>1.026481316070339</v>
       </c>
       <c r="F3">
-        <v>1.047389471457184</v>
+        <v>1.045633300158016</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.054688326068953</v>
+        <v>1.053514646214714</v>
       </c>
       <c r="J3">
-        <v>1.045240895491708</v>
+        <v>1.043499641263891</v>
       </c>
       <c r="K3">
-        <v>1.053474865725435</v>
+        <v>1.050990891667768</v>
       </c>
       <c r="L3">
-        <v>1.038281896299852</v>
+        <v>1.03678621474269</v>
       </c>
       <c r="M3">
-        <v>1.057449880667222</v>
+        <v>1.05571378081869</v>
       </c>
       <c r="N3">
-        <v>1.018558128160206</v>
+        <v>1.018455621304459</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.054039992852819</v>
+        <v>1.052666010162606</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.048878925880231</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.047130978814269</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.025322174127659</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.027902411675198</v>
+        <v>1.025986652538877</v>
       </c>
       <c r="D4">
-        <v>1.045078303751797</v>
+        <v>1.042415796315399</v>
       </c>
       <c r="E4">
-        <v>1.029977330764934</v>
+        <v>1.028347645459888</v>
       </c>
       <c r="F4">
-        <v>1.049117090465939</v>
+        <v>1.047251933167505</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.055342484445312</v>
+        <v>1.054086550076102</v>
       </c>
       <c r="J4">
-        <v>1.046618333856745</v>
+        <v>1.044748192973899</v>
       </c>
       <c r="K4">
-        <v>1.054661491118609</v>
+        <v>1.052027895105308</v>
       </c>
       <c r="L4">
-        <v>1.039726932759861</v>
+        <v>1.038115566637164</v>
       </c>
       <c r="M4">
-        <v>1.058656765034314</v>
+        <v>1.056811651314834</v>
       </c>
       <c r="N4">
-        <v>1.019041909981629</v>
+        <v>1.018801419654409</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.054995142799085</v>
+        <v>1.053534886203053</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.049718835904657</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.047865179324686</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.025542069767109</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.028940335154521</v>
+        <v>1.026970888314253</v>
       </c>
       <c r="D5">
-        <v>1.045796377456584</v>
+        <v>1.043071533979054</v>
       </c>
       <c r="E5">
-        <v>1.030807988785122</v>
+        <v>1.029129997326548</v>
       </c>
       <c r="F5">
-        <v>1.049841698499098</v>
+        <v>1.047931123688923</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.055616144180818</v>
+        <v>1.054325862941259</v>
       </c>
       <c r="J5">
-        <v>1.047195671163934</v>
+        <v>1.045271730288068</v>
       </c>
       <c r="K5">
-        <v>1.055160248823758</v>
+        <v>1.052464213069679</v>
       </c>
       <c r="L5">
-        <v>1.040332634456561</v>
+        <v>1.038673000017912</v>
       </c>
       <c r="M5">
-        <v>1.059163138672285</v>
+        <v>1.057272553906465</v>
       </c>
       <c r="N5">
-        <v>1.019245254882386</v>
+        <v>1.018946868780962</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.055395895625373</v>
+        <v>1.053899653170685</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.050078565421174</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.048181473548605</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.025634687282338</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.029119419992084</v>
+        <v>1.027140539610714</v>
       </c>
       <c r="D6">
-        <v>1.045922911080078</v>
+        <v>1.043187250260574</v>
       </c>
       <c r="E6">
-        <v>1.030952113301768</v>
+        <v>1.029265602936431</v>
       </c>
       <c r="F6">
-        <v>1.049967689078616</v>
+        <v>1.04804920328142</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.055665563555762</v>
+        <v>1.054369245726962</v>
       </c>
       <c r="J6">
-        <v>1.047297530966875</v>
+        <v>1.045364140967921</v>
       </c>
       <c r="K6">
-        <v>1.05524993455068</v>
+        <v>1.052543064407089</v>
       </c>
       <c r="L6">
-        <v>1.040438985907787</v>
+        <v>1.038770840714937</v>
       </c>
       <c r="M6">
-        <v>1.059252480116377</v>
+        <v>1.057353976017935</v>
       </c>
       <c r="N6">
-        <v>1.019281906956014</v>
+        <v>1.018973106199341</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.055466601962433</v>
+        <v>1.053964092140678</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.050150606250507</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.048246725511008</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.025652190966363</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.027930893184513</v>
+        <v>1.026022267325004</v>
       </c>
       <c r="D7">
-        <v>1.045104912206682</v>
+        <v>1.04244724425503</v>
       </c>
       <c r="E7">
-        <v>1.03000209657032</v>
+        <v>1.028378982451743</v>
       </c>
       <c r="F7">
-        <v>1.049139309248782</v>
+        <v>1.047278283731465</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.055356215052464</v>
+        <v>1.054103775147138</v>
       </c>
       <c r="J7">
-        <v>1.046640299260026</v>
+        <v>1.044777101481292</v>
       </c>
       <c r="K7">
-        <v>1.054684982351235</v>
+        <v>1.052056161715732</v>
       </c>
       <c r="L7">
-        <v>1.039748536143811</v>
+        <v>1.038143660031768</v>
       </c>
       <c r="M7">
-        <v>1.058675930799565</v>
+        <v>1.056834896688056</v>
       </c>
       <c r="N7">
-        <v>1.01905177479187</v>
+        <v>1.018837227987786</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.055010310919945</v>
+        <v>1.053553283032227</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.049755291153449</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.047907016237777</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.025551172964956</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.022863279593285</v>
+        <v>1.021237921133191</v>
       </c>
       <c r="D8">
-        <v>1.041619404655348</v>
+        <v>1.039281886341768</v>
       </c>
       <c r="E8">
-        <v>1.025960587394323</v>
+        <v>1.024592676230227</v>
       </c>
       <c r="F8">
-        <v>1.045618459788223</v>
+        <v>1.043992406759624</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.054016491882181</v>
+        <v>1.052942377933217</v>
       </c>
       <c r="J8">
-        <v>1.043828433421834</v>
+        <v>1.042247494826239</v>
       </c>
       <c r="K8">
-        <v>1.052263649508411</v>
+        <v>1.049954804241536</v>
       </c>
       <c r="L8">
-        <v>1.036800023555691</v>
+        <v>1.035449517665228</v>
       </c>
       <c r="M8">
-        <v>1.056214019716066</v>
+        <v>1.054607706519023</v>
       </c>
       <c r="N8">
-        <v>1.018064632444096</v>
+        <v>1.01819073890785</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.053061909068908</v>
+        <v>1.051790640459128</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.048047765381104</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.046426195659011</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.025106338485694</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.013561468258129</v>
+        <v>1.012439784763908</v>
       </c>
       <c r="D9">
-        <v>1.035246677532297</v>
+        <v>1.033483154556333</v>
       </c>
       <c r="E9">
-        <v>1.018583297081963</v>
+        <v>1.017667723366771</v>
       </c>
       <c r="F9">
-        <v>1.039206225559733</v>
+        <v>1.03800115567315</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.051492122928395</v>
+        <v>1.050734912673723</v>
       </c>
       <c r="J9">
-        <v>1.038644260162395</v>
+        <v>1.037560782311054</v>
       </c>
       <c r="K9">
-        <v>1.047792661777391</v>
+        <v>1.046055383765908</v>
       </c>
       <c r="L9">
-        <v>1.031381900288716</v>
+        <v>1.030480513078234</v>
       </c>
       <c r="M9">
-        <v>1.051693695426251</v>
+        <v>1.05050637408808</v>
       </c>
       <c r="N9">
-        <v>1.016239119909169</v>
+        <v>1.01690053009572</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.049484427901383</v>
+        <v>1.048544753599884</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.044883409398931</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.043665687636525</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.024256043962841</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.007179312345565</v>
+        <v>1.006447368762982</v>
       </c>
       <c r="D10">
-        <v>1.030927805320462</v>
+        <v>1.029588949387993</v>
       </c>
       <c r="E10">
-        <v>1.013564724009663</v>
+        <v>1.012999082735963</v>
       </c>
       <c r="F10">
-        <v>1.034918927441509</v>
+        <v>1.034029350895966</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.049755382244706</v>
+        <v>1.049236153474334</v>
       </c>
       <c r="J10">
-        <v>1.035110954487944</v>
+        <v>1.034407498618575</v>
       </c>
       <c r="K10">
-        <v>1.044760233531642</v>
+        <v>1.043443755841485</v>
       </c>
       <c r="L10">
-        <v>1.027693307463063</v>
+        <v>1.027137535247474</v>
       </c>
       <c r="M10">
-        <v>1.048685088374096</v>
+        <v>1.047810225037079</v>
       </c>
       <c r="N10">
-        <v>1.015004813642493</v>
+        <v>1.016152694125376</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.047154245038245</v>
+        <v>1.046461897659591</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.042755970965216</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.041837458325194</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.023688095783938</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.004935587057666</v>
+        <v>1.004348512942193</v>
       </c>
       <c r="D11">
-        <v>1.029620617822955</v>
+        <v>1.028428052147429</v>
       </c>
       <c r="E11">
-        <v>1.011895864965617</v>
+        <v>1.011456064486957</v>
       </c>
       <c r="F11">
-        <v>1.034001232091772</v>
+        <v>1.033222418088232</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.049372560610143</v>
+        <v>1.048931001705367</v>
       </c>
       <c r="J11">
-        <v>1.034104471595226</v>
+        <v>1.033541500990179</v>
       </c>
       <c r="K11">
-        <v>1.044004746898035</v>
+        <v>1.042833057772664</v>
       </c>
       <c r="L11">
-        <v>1.026596876276973</v>
+        <v>1.02616512239995</v>
       </c>
       <c r="M11">
-        <v>1.048309210677108</v>
+        <v>1.047543874135176</v>
       </c>
       <c r="N11">
-        <v>1.014741668920595</v>
+        <v>1.016205169341498</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.047288600524296</v>
+        <v>1.046683228886353</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.042254343050542</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.041441417075197</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.023627736305723</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.004300045780831</v>
+        <v>1.003736203319227</v>
       </c>
       <c r="D12">
-        <v>1.029338174952591</v>
+        <v>1.02816929380829</v>
       </c>
       <c r="E12">
-        <v>1.011465881817339</v>
+        <v>1.011042329806631</v>
       </c>
       <c r="F12">
-        <v>1.03400253892864</v>
+        <v>1.033241334649235</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.049367292850928</v>
+        <v>1.048932743658187</v>
       </c>
       <c r="J12">
-        <v>1.033923528320372</v>
+        <v>1.033383277716302</v>
       </c>
       <c r="K12">
-        <v>1.04392408956781</v>
+        <v>1.042776007151125</v>
       </c>
       <c r="L12">
-        <v>1.026376661786834</v>
+        <v>1.025960990464586</v>
       </c>
       <c r="M12">
-        <v>1.0485060640034</v>
+        <v>1.047758239507434</v>
       </c>
       <c r="N12">
-        <v>1.014748455888067</v>
+        <v>1.016309906863874</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.047767682992695</v>
+        <v>1.047176359794122</v>
       </c>
       <c r="Q12">
-        <v>1.02</v>
+        <v>1.019999999999999</v>
       </c>
       <c r="R12">
-        <v>1.042197316741778</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.041401081919974</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.023667104854526</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.004880551342718</v>
+        <v>1.004232452805563</v>
       </c>
       <c r="D13">
-        <v>1.029849038863553</v>
+        <v>1.028599196526886</v>
       </c>
       <c r="E13">
-        <v>1.01197751694691</v>
+        <v>1.011473011473161</v>
       </c>
       <c r="F13">
-        <v>1.034739062526201</v>
+        <v>1.033915301681768</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.049670186900063</v>
+        <v>1.049180910005931</v>
       </c>
       <c r="J13">
-        <v>1.034387913014331</v>
+        <v>1.033766791446427</v>
       </c>
       <c r="K13">
-        <v>1.044383690479569</v>
+        <v>1.043155987075444</v>
       </c>
       <c r="L13">
-        <v>1.026835512948023</v>
+        <v>1.026340351594091</v>
       </c>
       <c r="M13">
-        <v>1.049187760977858</v>
+        <v>1.048378405811059</v>
       </c>
       <c r="N13">
-        <v>1.014973880543263</v>
+        <v>1.016431854157397</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.048581065285708</v>
+        <v>1.047941246591143</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.042519795645037</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.041667019645619</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.023791924660348</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.005838199560857</v>
+        <v>1.005083612169385</v>
       </c>
       <c r="D14">
-        <v>1.030566893457666</v>
+        <v>1.029214045870346</v>
       </c>
       <c r="E14">
-        <v>1.01276255926006</v>
+        <v>1.012158761264175</v>
       </c>
       <c r="F14">
-        <v>1.035587448842213</v>
+        <v>1.034684512552072</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.050021707039468</v>
+        <v>1.049467182854918</v>
       </c>
       <c r="J14">
-        <v>1.035005413518648</v>
+        <v>1.034281779722579</v>
       </c>
       <c r="K14">
-        <v>1.04495074634816</v>
+        <v>1.043621560330974</v>
       </c>
       <c r="L14">
-        <v>1.027464398794786</v>
+        <v>1.026871640044686</v>
       </c>
       <c r="M14">
-        <v>1.049884190120917</v>
+        <v>1.048996840020131</v>
       </c>
       <c r="N14">
-        <v>1.015230858076243</v>
+        <v>1.016526898606989</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.04930363498177</v>
+        <v>1.048602252551511</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.042922125639155</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.041997732115414</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.023918767528601</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.00634360748126</v>
+        <v>1.00553989369272</v>
       </c>
       <c r="D15">
-        <v>1.03092491569578</v>
+        <v>1.029524175131586</v>
       </c>
       <c r="E15">
-        <v>1.013166182078977</v>
+        <v>1.012517387825033</v>
       </c>
       <c r="F15">
-        <v>1.035970861160761</v>
+        <v>1.035031269993209</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.050180941152361</v>
+        <v>1.049597263221681</v>
       </c>
       <c r="J15">
-        <v>1.035305338481844</v>
+        <v>1.034534303135355</v>
       </c>
       <c r="K15">
-        <v>1.045217459739464</v>
+        <v>1.043841031258756</v>
       </c>
       <c r="L15">
-        <v>1.027773429966253</v>
+        <v>1.027136404960912</v>
       </c>
       <c r="M15">
-        <v>1.050176528968838</v>
+        <v>1.04925303183084</v>
       </c>
       <c r="N15">
-        <v>1.015345003556457</v>
+        <v>1.01655986173449</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.049571984993354</v>
+        <v>1.04884205011127</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.043116507830518</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.042159281964526</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.023972040821983</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.008936309862474</v>
+        <v>1.007921832280253</v>
       </c>
       <c r="D16">
-        <v>1.032662777446668</v>
+        <v>1.031051516200383</v>
       </c>
       <c r="E16">
-        <v>1.015188550178523</v>
+        <v>1.014350855461531</v>
       </c>
       <c r="F16">
-        <v>1.037676790355767</v>
+        <v>1.036577583350227</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.050874582256386</v>
+        <v>1.050169547994628</v>
       </c>
       <c r="J16">
-        <v>1.036724141182959</v>
+        <v>1.035748843659943</v>
       </c>
       <c r="K16">
-        <v>1.046431295577237</v>
+        <v>1.044846780157166</v>
       </c>
       <c r="L16">
-        <v>1.029252992170126</v>
+        <v>1.028429815130622</v>
       </c>
       <c r="M16">
-        <v>1.051362762430211</v>
+        <v>1.050281563868505</v>
       </c>
       <c r="N16">
-        <v>1.015828611106825</v>
+        <v>1.016676381753434</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.050471140919137</v>
+        <v>1.049616534207952</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.043977847960488</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.042873798352791</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.02418136306731</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.010425991472565</v>
+        <v>1.009315954556114</v>
       </c>
       <c r="D17">
-        <v>1.033621764963996</v>
+        <v>1.031910537152713</v>
       </c>
       <c r="E17">
-        <v>1.016332245952005</v>
+        <v>1.015410775823983</v>
       </c>
       <c r="F17">
-        <v>1.038537573938837</v>
+        <v>1.037363637500266</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.051220891221613</v>
+        <v>1.050461776778931</v>
       </c>
       <c r="J17">
-        <v>1.037489327146325</v>
+        <v>1.03642078238051</v>
       </c>
       <c r="K17">
-        <v>1.047064891127538</v>
+        <v>1.045381273414396</v>
       </c>
       <c r="L17">
-        <v>1.030059846038057</v>
+        <v>1.029153888071095</v>
       </c>
       <c r="M17">
-        <v>1.05190203365233</v>
+        <v>1.050746796567903</v>
       </c>
       <c r="N17">
-        <v>1.016065015619219</v>
+        <v>1.016745867055123</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.050769327004959</v>
+        <v>1.049856108510626</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.044428373880341</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.043254504141974</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.024276971171761</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,105 +1431,123 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.011087124081223</v>
+        <v>1.009961054983691</v>
       </c>
       <c r="D18">
-        <v>1.033969802439296</v>
+        <v>1.03223722910694</v>
       </c>
       <c r="E18">
-        <v>1.016805039397137</v>
+        <v>1.015872642545915</v>
       </c>
       <c r="F18">
-        <v>1.038699674079391</v>
+        <v>1.037510783151858</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.05128253971087</v>
+        <v>1.050517128575524</v>
       </c>
       <c r="J18">
-        <v>1.037737719012396</v>
+        <v>1.036652956507702</v>
       </c>
       <c r="K18">
-        <v>1.04722684935939</v>
+        <v>1.045521777429551</v>
       </c>
       <c r="L18">
-        <v>1.030339866602496</v>
+        <v>1.02942290491393</v>
       </c>
       <c r="M18">
-        <v>1.051882240461139</v>
+        <v>1.05071198906377</v>
       </c>
       <c r="N18">
-        <v>1.016098631397768</v>
+        <v>1.016733615695066</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.050518004944116</v>
+        <v>1.049592727740709</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.044531371324361</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.04334119584639</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.024270724246207</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.011016784761455</v>
+        <v>1.009936275501828</v>
       </c>
       <c r="D19">
-        <v>1.03378595527515</v>
+        <v>1.032095425400322</v>
       </c>
       <c r="E19">
-        <v>1.016688778086217</v>
+        <v>1.015801592889628</v>
       </c>
       <c r="F19">
-        <v>1.038239247489953</v>
+        <v>1.037083005443406</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.051102351941772</v>
+        <v>1.050368196209649</v>
       </c>
       <c r="J19">
-        <v>1.037537722013659</v>
+        <v>1.036496622206381</v>
       </c>
       <c r="K19">
-        <v>1.046984357132242</v>
+        <v>1.045320529365192</v>
       </c>
       <c r="L19">
-        <v>1.0301624948942</v>
+        <v>1.029289921395242</v>
       </c>
       <c r="M19">
-        <v>1.05136784122152</v>
+        <v>1.050229650303827</v>
       </c>
       <c r="N19">
-        <v>1.015963232341045</v>
+        <v>1.016636317142958</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.049788875665447</v>
+        <v>1.048888658847587</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.044366251565575</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.043205863252108</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.024179487344504</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.008873984357381</v>
+        <v>1.008009849926244</v>
       </c>
       <c r="D20">
-        <v>1.032091370255284</v>
+        <v>1.030618662523801</v>
       </c>
       <c r="E20">
-        <v>1.014901441700238</v>
+        <v>1.014215841587156</v>
       </c>
       <c r="F20">
-        <v>1.03606457586257</v>
+        <v>1.035073464809738</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.050236500501626</v>
+        <v>1.049638575476596</v>
       </c>
       <c r="J20">
-        <v>1.036067063211754</v>
+        <v>1.035235459221456</v>
       </c>
       <c r="K20">
-        <v>1.045592464824668</v>
+        <v>1.044143669907787</v>
       </c>
       <c r="L20">
-        <v>1.028687232065813</v>
+        <v>1.028013245005338</v>
       </c>
       <c r="M20">
-        <v>1.04950159121024</v>
+        <v>1.048526405553785</v>
       </c>
       <c r="N20">
-        <v>1.015345792979125</v>
+        <v>1.016284683241786</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.047789974391861</v>
+        <v>1.047018225094443</v>
       </c>
       <c r="Q20">
-        <v>1.02</v>
+        <v>1.019999999999999</v>
       </c>
       <c r="R20">
-        <v>1.043386034653143</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.042378072888941</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.023844415978885</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.00396993197554</v>
+        <v>1.003546692181496</v>
       </c>
       <c r="D21">
-        <v>1.028740551775353</v>
+        <v>1.027702034072506</v>
       </c>
       <c r="E21">
-        <v>1.011040060169204</v>
+        <v>1.010756515206983</v>
       </c>
       <c r="F21">
-        <v>1.032670445061236</v>
+        <v>1.032011384863866</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.048843262625134</v>
+        <v>1.048505485933123</v>
       </c>
       <c r="J21">
-        <v>1.033302604595394</v>
+        <v>1.032896872456275</v>
       </c>
       <c r="K21">
-        <v>1.043197143408026</v>
+        <v>1.042176925492035</v>
       </c>
       <c r="L21">
-        <v>1.025815250968755</v>
+        <v>1.025536927993028</v>
       </c>
       <c r="M21">
-        <v>1.047058219181796</v>
+        <v>1.046410652611113</v>
       </c>
       <c r="N21">
-        <v>1.014363144289558</v>
+        <v>1.016058636197406</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.045815795166595</v>
+        <v>1.045303293208489</v>
       </c>
       <c r="Q21">
-        <v>1.02</v>
+        <v>1.019999999999999</v>
       </c>
       <c r="R21">
-        <v>1.041695686605715</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.040991070583573</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.023414081536893</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.000844437523943</v>
+        <v>1.000701310044215</v>
       </c>
       <c r="D22">
-        <v>1.026616918677784</v>
+        <v>1.025854243832591</v>
       </c>
       <c r="E22">
-        <v>1.008589233140288</v>
+        <v>1.008561517718755</v>
       </c>
       <c r="F22">
-        <v>1.030550628537113</v>
+        <v>1.030102891711427</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.047956087110076</v>
+        <v>1.047783885908276</v>
       </c>
       <c r="J22">
-        <v>1.031547611926632</v>
+        <v>1.031410752596586</v>
       </c>
       <c r="K22">
-        <v>1.041678908712892</v>
+        <v>1.040930352302273</v>
       </c>
       <c r="L22">
-        <v>1.023992434610047</v>
+        <v>1.02396525606891</v>
       </c>
       <c r="M22">
-        <v>1.045540230899343</v>
+        <v>1.045100696962828</v>
       </c>
       <c r="N22">
-        <v>1.013741407203406</v>
+        <v>1.015910315114351</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.044614417010647</v>
+        <v>1.044266557257905</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.040608866631577</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.040095026139342</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.023141546347502</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.002492646013339</v>
+        <v>1.00218677758615</v>
       </c>
       <c r="D23">
-        <v>1.027729865424439</v>
+        <v>1.026810089534012</v>
       </c>
       <c r="E23">
-        <v>1.009878600043552</v>
+        <v>1.009701808267326</v>
       </c>
       <c r="F23">
-        <v>1.031665361411422</v>
+        <v>1.03109654530192</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.04841878440818</v>
+        <v>1.048151095702671</v>
       </c>
       <c r="J23">
-        <v>1.032467366847365</v>
+        <v>1.03217449799738</v>
       </c>
       <c r="K23">
-        <v>1.042470730360225</v>
+        <v>1.041567545825572</v>
       </c>
       <c r="L23">
-        <v>1.024948528974068</v>
+        <v>1.02477507214907</v>
       </c>
       <c r="M23">
-        <v>1.046335669748234</v>
+        <v>1.045777008285623</v>
       </c>
       <c r="N23">
-        <v>1.014064858145443</v>
+        <v>1.015939780422013</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.045243949689596</v>
+        <v>1.044801809350738</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.041159158396071</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.040535047603474</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.023276989302993</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.008876685623604</v>
+        <v>1.008018091160287</v>
       </c>
       <c r="D24">
-        <v>1.032063932146947</v>
+        <v>1.030595948817779</v>
       </c>
       <c r="E24">
-        <v>1.014892060121335</v>
+        <v>1.014212120347618</v>
       </c>
       <c r="F24">
-        <v>1.036005622608056</v>
+        <v>1.035018308900857</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.050206226695344</v>
+        <v>1.049612245902083</v>
       </c>
       <c r="J24">
-        <v>1.03603726525575</v>
+        <v>1.035210946896826</v>
       </c>
       <c r="K24">
-        <v>1.045550432439898</v>
+        <v>1.044106256244089</v>
       </c>
       <c r="L24">
-        <v>1.028662606032656</v>
+        <v>1.027994168837955</v>
       </c>
       <c r="M24">
-        <v>1.04942862631347</v>
+        <v>1.048457158979423</v>
       </c>
       <c r="N24">
-        <v>1.015323945477421</v>
+        <v>1.016266275021996</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.047691797388512</v>
+        <v>1.046922953300561</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.043329184682055</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.042321813347718</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.023826745720946</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.016033773216356</v>
+        <v>1.014764173053246</v>
       </c>
       <c r="D25">
-        <v>1.036946835069831</v>
+        <v>1.035020725529729</v>
       </c>
       <c r="E25">
-        <v>1.020542201267827</v>
+        <v>1.019493348412762</v>
       </c>
       <c r="F25">
-        <v>1.040907625452177</v>
+        <v>1.039582096123423</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.052179255721523</v>
+        <v>1.051330528295396</v>
       </c>
       <c r="J25">
-        <v>1.040033328510306</v>
+        <v>1.038804678928874</v>
       </c>
       <c r="K25">
-        <v>1.048997448836346</v>
+        <v>1.047098669697279</v>
       </c>
       <c r="L25">
-        <v>1.032829780948298</v>
+        <v>1.031796408333084</v>
       </c>
       <c r="M25">
-        <v>1.052902439285108</v>
+        <v>1.051595524316526</v>
       </c>
       <c r="N25">
-        <v>1.016732224573993</v>
+        <v>1.017214676061249</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.050441055276445</v>
+        <v>1.04940673299897</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.045763518960108</v>
+        <v>1.044434416219526</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.024487920580558</v>
       </c>
     </row>
   </sheetData>
